--- a/similarities/split_global/harmonic_similarity_timestamps_61.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_61.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,663 +484,705 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C', 'G/3']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02.340000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:27.476822', '0:00:36.159841')]</t>
+          <t>('0:00:03.129454', '0:00:05.172811')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=121.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:maj', 'A#:maj', 'D#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb:7', 'Eb'], ['Bb', 'F', 'Bb'], ['Bb:7', 'Eb', 'Bb']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:15.640000', '0:00:24.280000'), ('0:00:00.780000', '0:00:19.180000'), ('0:01:02.260000', '0:01:04.580000')]</t>
+          <t>('0:00:19.140000', '0:00:22.240000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:48.170328', '0:00:55.589104'), ('0:00:26.041712', '0:00:37.106020'), ('0:00:49.981485', '0:00:59.292687')]</t>
+          <t>('0:04:43.300000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=15.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=62.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=48.170328', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=49.981485']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:00:31.600000', '0:00:33.800000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:48.001000', '0:00:54.307000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:01:08.820000', '0:01:17.920000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:03.700000')]</t>
+          <t>('0:04:43.300000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:35.220000', '0:00:40')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:32.980000', '0:00:35.260000')]</t>
+          <t>('0:00:22.125076', '0:00:36.625937')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:32.374988')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:29.470000', '0:00:32.220000')]</t>
+          <t>('0:00:46.932280', '0:00:54.037586')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=29.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+          <t>('0:00:39.020000', '0:00:57.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:04:31.220000', '0:04:38.420000')]</t>
+          <t>('0:00:16.340000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=39.02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min', 'A#:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['F:min', 'C', 'F:min', 'F:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:00:15.600000', '0:00:25.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:11.890000', '0:00:19.531000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=11.89</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000'), ('0:00:14.400000', '0:00:16.430000')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.400000', '0:00:09.040000'), ('0:00:51.960000', '0:00:58.620000')]</t>
+          <t>('0:00:10.460000', '0:00:21.920000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=14.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=0.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=51.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=10.46</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'A:maj', 'D:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G', 'E', 'A']]</t>
+          <t>['F:min/C', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:24.701000', '0:01:30.135000')]</t>
+          <t>('0:00:36.660000', '0:00:43.940000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.593854', '0:00:13.659705')]</t>
+          <t>('0:00:43.680000', '0:00:45.800000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=84.701']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-268#t=3.593854']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.540000')]</t>
+          <t>('0:01:12.680000', '0:01:18.700000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:00:38.740000', '0:00:47.140000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=72.68</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=38.74</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>jaah_71</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:01:12.980000', '0:01:27.460000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
+          <t>('0:01:31.840000', '0:01:43.940000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=72.98</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=24.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=91.84</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:01:20.200000', '0:01:26.860000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.260000'), ('0:00:08.200000', '0:00:12.660000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000'), ('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:18.540000'), ('0:00:21.940000', '0:00:27.520000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1150,36 +1192,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:04:13.840000', '0:04:19.880000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
